--- a/gradebook.xlsx
+++ b/gradebook.xlsx
@@ -5,13 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\excelProjects\gradebook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\excelProjects\gradebook\gardebook2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{921B9DEA-1447-4CA0-98EF-EC3EBA45DDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8848742-C21A-462C-BD50-A3ADF9E3CD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{87D05782-A9D8-42AE-B36F-A4A50D2553CC}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F026A1EC-2C3B-4066-BA22-7F6D513A6A60}"/>
+    <workbookView xWindow="7005" yWindow="615" windowWidth="15150" windowHeight="10980" xr2:uid="{F026A1EC-2C3B-4066-BA22-7F6D513A6A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +32,152 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+  <si>
+    <t>Gardebook</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kern </t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Howed</t>
+  </si>
+  <si>
+    <t>Glenda</t>
+  </si>
+  <si>
+    <t>O'Donnald</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>hernderandez</t>
+  </si>
+  <si>
+    <t>Wendy</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Baker</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valinda </t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Carehan</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Westerfield</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
+    <t>Penfold</t>
+  </si>
+  <si>
+    <t>Sandy</t>
+  </si>
+  <si>
+    <t>Islington</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Trenton</t>
+  </si>
+  <si>
+    <t>Blessing</t>
+  </si>
+  <si>
+    <t>Engleheart</t>
+  </si>
+  <si>
+    <t>Chandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norman </t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Mann</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
+    <t>Underhill</t>
+  </si>
+  <si>
+    <t>Genesis</t>
+  </si>
+  <si>
+    <t>Safety Test</t>
+  </si>
+  <si>
+    <t>Company philosophy Test</t>
+  </si>
+  <si>
+    <t>Drug Test</t>
+  </si>
+  <si>
+    <t>Financial Skills Test</t>
+  </si>
+  <si>
+    <t>Points Possible</t>
+  </si>
+  <si>
+    <t>Fire Employee</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,16 +186,71 @@
       <charset val="178"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Aardvark"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -61,17 +258,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -381,15 +659,1571 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619B2B58-DEC6-4ADF-998E-2F838EA44B18}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:K24"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="162.75" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="4">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>93</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <f>C4/C$2</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:K19" si="0">D4/D$2</f>
+        <v>0.95</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M4" s="3" t="b">
+        <f>OR(H4&lt;0.5,I4&lt;0.5,J4&lt;0.5,K4&lt;0.5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" ref="H5:I20" si="1">C5/C$2</f>
+        <v>0.9</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M5" s="3" t="b">
+        <f t="shared" ref="M5:M20" si="2">OR(H5&lt;0.5,I5&lt;0.5,J5&lt;0.5,K5&lt;0.5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>82</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.82</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>73</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.73</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M7" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>59</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>67</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.67</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>70</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>90</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>45</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>90</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="4">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>80</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M18" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="4">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>69</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.69</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="4">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>90</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" ref="J20" si="3">E20/E$2</f>
+        <v>0.9</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" ref="K20" si="4">F20/F$2</f>
+        <v>1</v>
+      </c>
+      <c r="M20" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <f>MAX(C4:C20)</f>
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:F22" si="5">MAX(D4:D20)</f>
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f>MAX(H4:H20)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22:K22" si="6">MAX(I4:I20)</f>
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23">
+        <f>MIN(C4:C20)</f>
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:F23" si="7">MIN(D4:D20)</f>
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>MIN(H4:H20)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ref="I23:K23" si="8">MIN(I4:I20)</f>
+        <v>0.3</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="8"/>
+        <v>0.08</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <f>AVERAGE(C4:C20)</f>
+        <v>8.9411764705882355</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:F24" si="9">AVERAGE(D4:D20)</f>
+        <v>16.941176470588236</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="9"/>
+        <v>77.411764705882348</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="9"/>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="H24">
+        <f>AVERAGE(H4:H20)</f>
+        <v>0.89411764705882346</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:K24" si="10">AVERAGE(I4:I20)</f>
+        <v>0.84705882352941153</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="10"/>
+        <v>0.77411764705882358</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="10"/>
+        <v>0.88235294117647056</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C103"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C104"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C105"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C106"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C107"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C108"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C109"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C110"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C111"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C112"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C113"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C114"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C115"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C116"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C117"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C118"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C119"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C120"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C121"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C122"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C123"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C124"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C125"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C126"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C127"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C128"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C129"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C130"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C131"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C132"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C133"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C134"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C135"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C136"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C137"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C138"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C139"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C140"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C141"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C142"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C143"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C144"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C145"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C146"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C147"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C148"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C149"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C150"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C151"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C152"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C153"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C154"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C155"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C156"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C157"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C158"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C159"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C160"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C161"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C162"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C163"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C164"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C165"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C166"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C167"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C168"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C169"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C170"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C171"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C172"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C173"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C174"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C175"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C176"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C177"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C178"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C179"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C180"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C181"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C182"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C183"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C184"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C185"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C186"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C187"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C188"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C189"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C190"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C191"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C192"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C193"/>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C194"/>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C195"/>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C196"/>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C197"/>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C198"/>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C199"/>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C200"/>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C201"/>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C202"/>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C203"/>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C204"/>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C205"/>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C206"/>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C207"/>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C208"/>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C209"/>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C210"/>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C211"/>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C212"/>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C213"/>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C214"/>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C215"/>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C216"/>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C217"/>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C218"/>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C219"/>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C220"/>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C221"/>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C222"/>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C223"/>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C224"/>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C225"/>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C226"/>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C227"/>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C228"/>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C229"/>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C230"/>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C231"/>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C232"/>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C233"/>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C234"/>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C235"/>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C236"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C4:C20">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:F20">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D20">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F20">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E20">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:K20 M4:M20">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M20">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gradebook.xlsx
+++ b/gradebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\excelProjects\gradebook\gardebook2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615F5F3A-7C89-4647-98CA-70B7EB5D9DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63502884-DE39-4B7B-97A7-842B356F425F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="270" windowWidth="15150" windowHeight="10980" xr2:uid="{F026A1EC-2C3B-4066-BA22-7F6D513A6A60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F026A1EC-2C3B-4066-BA22-7F6D513A6A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -372,9 +372,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -392,6 +389,9 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3718,43 +3718,43 @@
   <dimension ref="A1:R237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.875" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="13.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="6" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.875" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="75" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" ht="162.75">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+    </row>
+    <row r="2" spans="1:18" ht="164.25">
       <c r="C2" s="3" t="s">
         <v>37</v>
       </c>
@@ -3784,30 +3784,30 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>10</v>
       </c>
-      <c r="D3" s="8">
-        <v>10</v>
-      </c>
-      <c r="E3" s="8">
-        <v>10</v>
-      </c>
-      <c r="F3" s="8">
-        <v>10</v>
+      <c r="D3" s="7">
+        <v>20</v>
+      </c>
+      <c r="E3" s="7">
+        <v>100</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="38.25" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="4" t="s">
@@ -3816,37 +3816,37 @@
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>10</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>19</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>93</v>
       </c>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11">
         <f>C5/C$3</f>
         <v>1</v>
       </c>
-      <c r="I5" s="12">
-        <f t="shared" ref="I5:K20" si="0">D5/D$3</f>
-        <v>1.9</v>
-      </c>
-      <c r="J5" s="12">
+      <c r="I5" s="13">
+        <f t="shared" ref="I5:J20" si="0">D5/D$3</f>
+        <v>0.95</v>
+      </c>
+      <c r="J5" s="11">
         <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="K5" s="12">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="M5" s="12" t="b">
+        <v>0.93</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" ref="I5:K20" si="1">F5/F$3</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="11" t="b">
         <f>OR(H5&lt;0.5,I5&lt;0.5,J5&lt;0.5,K5&lt;0.5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -3856,37 +3856,37 @@
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>9</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>20</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>100</v>
       </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12">
-        <f t="shared" ref="H6:I21" si="1">C6/C$3</f>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" ref="H6:H21" si="2">C6/C$3</f>
         <v>0.9</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J6" s="12">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K6" s="12">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="M6" s="12" t="b">
-        <f t="shared" ref="M6:M21" si="2">OR(H6&lt;0.5,I6&lt;0.5,J6&lt;0.5,K6&lt;0.5)</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="11" t="b">
+        <f t="shared" ref="M6:M21" si="3">OR(H6&lt;0.5,I6&lt;0.5,J6&lt;0.5,K6&lt;0.5)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3896,37 +3896,37 @@
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>8</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>17</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>82</v>
       </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.82</v>
+      </c>
+      <c r="K7" s="11">
         <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="I7" s="12">
-        <f t="shared" si="0"/>
-        <v>1.7</v>
-      </c>
-      <c r="J7" s="13">
-        <f t="shared" si="0"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="K7" s="12">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="M7" s="12" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M7" s="11" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3936,37 +3936,37 @@
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>9</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>10</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>73</v>
       </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12">
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.73</v>
+      </c>
+      <c r="K8" s="11">
         <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="I8" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J8" s="12">
-        <f t="shared" si="0"/>
-        <v>7.3</v>
-      </c>
-      <c r="K8" s="12">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="M8" s="12" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M8" s="11" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -3976,37 +3976,37 @@
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>10</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>20</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>59</v>
       </c>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="H9" s="12">
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.59</v>
+      </c>
+      <c r="K9" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I9" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J9" s="12">
-        <f t="shared" si="0"/>
-        <v>5.9</v>
-      </c>
-      <c r="K9" s="12">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="M9" s="12" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="M9" s="11" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4016,37 +4016,37 @@
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>9</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>17</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>100</v>
       </c>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="12">
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="11">
         <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="I10" s="12">
-        <f t="shared" si="0"/>
-        <v>1.7</v>
-      </c>
-      <c r="J10" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K10" s="12">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="M10" s="12" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M10" s="11" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4056,36 +4056,36 @@
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>8</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>20</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>100</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>0</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="11">
         <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="I11" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J11" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K11" s="12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="12" t="b">
-        <f t="shared" si="2"/>
+      <c r="M11" s="11" t="b">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -4096,36 +4096,36 @@
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>5</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>6</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>100</v>
       </c>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-      <c r="H12" s="12">
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="11">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="12">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="J12" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="12">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="M12" s="12" t="b">
-        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="11" t="b">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -4136,37 +4136,37 @@
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>10</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>20</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>67</v>
       </c>
-      <c r="F13" s="10">
-        <v>1</v>
-      </c>
-      <c r="H13" s="12">
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67</v>
+      </c>
+      <c r="K13" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I13" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J13" s="12">
-        <f t="shared" si="0"/>
-        <v>6.7</v>
-      </c>
-      <c r="K13" s="12">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="M13" s="12" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="M13" s="11" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -4176,37 +4176,37 @@
       <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>9</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>20</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>70</v>
       </c>
-      <c r="F14" s="10">
-        <v>1</v>
-      </c>
-      <c r="H14" s="12">
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="11">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="K14" s="11">
         <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="I14" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J14" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="K14" s="12">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="M14" s="12" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M14" s="11" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -4216,36 +4216,36 @@
       <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>10</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>19</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>8</v>
       </c>
-      <c r="F15" s="10">
-        <v>1</v>
-      </c>
-      <c r="H15" s="12">
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+      <c r="J15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="K15" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I15" s="12">
-        <f t="shared" si="0"/>
-        <v>1.9</v>
-      </c>
-      <c r="J15" s="12">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="K15" s="12">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="M15" s="12" t="b">
-        <f t="shared" si="2"/>
+      <c r="M15" s="11" t="b">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -4256,37 +4256,37 @@
       <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>8</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>17</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>90</v>
       </c>
-      <c r="F16" s="10">
-        <v>1</v>
-      </c>
-      <c r="H16" s="12">
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="J16" s="11">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K16" s="11">
         <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="I16" s="12">
-        <f t="shared" si="0"/>
-        <v>1.7</v>
-      </c>
-      <c r="J16" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="K16" s="12">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="M16" s="12" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M16" s="11" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -4296,36 +4296,36 @@
       <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>9</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>19</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>45</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>0</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+      <c r="J17" s="11">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="K17" s="11">
         <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="I17" s="12">
-        <f t="shared" si="0"/>
-        <v>1.9</v>
-      </c>
-      <c r="J17" s="12">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="K17" s="12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="12" t="b">
-        <f t="shared" si="2"/>
+      <c r="M17" s="11" t="b">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -4336,37 +4336,37 @@
       <c r="B18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>7</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>20</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>90</v>
       </c>
-      <c r="F18" s="10">
-        <v>1</v>
-      </c>
-      <c r="H18" s="12">
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="I18" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="11">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K18" s="11">
         <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-      <c r="I18" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J18" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="K18" s="12">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="M18" s="12" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M18" s="11" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -4376,37 +4376,37 @@
       <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>10</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>10</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>80</v>
       </c>
-      <c r="F19" s="10">
-        <v>1</v>
-      </c>
-      <c r="H19" s="12">
+      <c r="F19" s="9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="11">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="K19" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I19" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J19" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K19" s="12">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="M19" s="12" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="M19" s="11" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -4416,37 +4416,37 @@
       <c r="B20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>11</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>20</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>69</v>
       </c>
-      <c r="F20" s="10">
-        <v>1</v>
-      </c>
-      <c r="H20" s="12">
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="11">
+        <f t="shared" si="0"/>
+        <v>0.69</v>
+      </c>
+      <c r="K20" s="11">
         <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I20" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J20" s="12">
-        <f t="shared" si="0"/>
-        <v>6.9</v>
-      </c>
-      <c r="K20" s="12">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="M20" s="12" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M20" s="11" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -4456,113 +4456,113 @@
       <c r="B21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>10</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>14</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>90</v>
       </c>
-      <c r="F21" s="10">
-        <v>1</v>
-      </c>
-      <c r="H21" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I21" s="12">
-        <f t="shared" si="1"/>
-        <v>1.4</v>
-      </c>
-      <c r="J21" s="12">
-        <f t="shared" ref="J21" si="3">E21/E$3</f>
-        <v>9</v>
-      </c>
-      <c r="K21" s="12">
-        <f t="shared" ref="K21" si="4">F21/F$3</f>
-        <v>0.1</v>
-      </c>
-      <c r="M21" s="12" t="b">
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="I21" s="11">
+        <f t="shared" ref="I21" si="4">D21/D$3</f>
+        <v>0.7</v>
+      </c>
+      <c r="J21" s="11">
+        <f t="shared" ref="J21" si="5">E21/E$3</f>
+        <v>0.9</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" ref="K21" si="6">F21/F$3</f>
+        <v>1</v>
+      </c>
+      <c r="M21" s="11" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="C22" s="10"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <f>MAX(C5:C21)</f>
         <v>11</v>
       </c>
-      <c r="D23" s="10">
-        <f t="shared" ref="D23:F23" si="5">MAX(D5:D21)</f>
+      <c r="D23" s="9">
+        <f t="shared" ref="D23:F23" si="7">MAX(D5:D21)</f>
         <v>20</v>
       </c>
-      <c r="E23" s="10">
-        <f t="shared" si="5"/>
+      <c r="E23" s="9">
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="F23" s="10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H23" s="10">
+      <c r="F23" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="9">
         <f>MAX(H5:H21)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="I23" s="10">
-        <f t="shared" ref="I23:K23" si="6">MAX(I5:I21)</f>
-        <v>2</v>
-      </c>
-      <c r="J23" s="10">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="K23" s="10">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
+      <c r="I23" s="9">
+        <f t="shared" ref="I23:K23" si="8">MAX(I5:I21)</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <f>MIN(C5:C21)</f>
         <v>5</v>
       </c>
-      <c r="D24" s="10">
-        <f t="shared" ref="D24:F24" si="7">MIN(D5:D21)</f>
+      <c r="D24" s="9">
+        <f t="shared" ref="D24:F24" si="9">MIN(D5:D21)</f>
         <v>6</v>
       </c>
-      <c r="E24" s="10">
-        <f t="shared" si="7"/>
+      <c r="E24" s="9">
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="F24" s="10">
-        <f t="shared" si="7"/>
+      <c r="F24" s="9">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <f>MIN(H5:H21)</f>
         <v>0.5</v>
       </c>
-      <c r="I24" s="10">
-        <f t="shared" ref="I24:K24" si="8">MIN(I5:I21)</f>
-        <v>0.6</v>
-      </c>
-      <c r="J24" s="10">
-        <f t="shared" si="8"/>
-        <v>0.8</v>
-      </c>
-      <c r="K24" s="10">
-        <f t="shared" si="8"/>
+      <c r="I24" s="9">
+        <f t="shared" ref="I24:K24" si="10">MIN(I5:I21)</f>
+        <v>0.3</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="10"/>
+        <v>0.08</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4570,674 +4570,674 @@
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="9">
         <f>AVERAGE(C5:C21)</f>
         <v>8.9411764705882355</v>
       </c>
-      <c r="D25" s="10">
-        <f t="shared" ref="D25:F25" si="9">AVERAGE(D5:D21)</f>
+      <c r="D25" s="9">
+        <f t="shared" ref="D25:F25" si="11">AVERAGE(D5:D21)</f>
         <v>16.941176470588236</v>
       </c>
-      <c r="E25" s="10">
-        <f t="shared" si="9"/>
+      <c r="E25" s="9">
+        <f t="shared" si="11"/>
         <v>77.411764705882348</v>
       </c>
-      <c r="F25" s="10">
-        <f t="shared" si="9"/>
+      <c r="F25" s="9">
+        <f t="shared" si="11"/>
         <v>0.88235294117647056</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <f>AVERAGE(H5:H21)</f>
         <v>0.89411764705882346</v>
       </c>
-      <c r="I25" s="10">
-        <f t="shared" ref="I25:K25" si="10">AVERAGE(I5:I21)</f>
-        <v>1.6941176470588231</v>
-      </c>
-      <c r="J25" s="10">
-        <f t="shared" si="10"/>
-        <v>7.7411764705882353</v>
-      </c>
-      <c r="K25" s="10">
-        <f t="shared" si="10"/>
-        <v>8.8235294117647078E-2</v>
+      <c r="I25" s="9">
+        <f t="shared" ref="I25:K25" si="12">AVERAGE(I5:I21)</f>
+        <v>0.84705882352941153</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="12"/>
+        <v>0.77411764705882358</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="12"/>
+        <v>0.88235294117647056</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="C26" s="10"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="C27" s="10"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="C28" s="10"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="C29" s="10"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="C30" s="10"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="C31" s="10"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="C32" s="10"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="10"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="10"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="10"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="10"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="10"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="10"/>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="10"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="10"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="10"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="10"/>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="3:3">
-      <c r="C43" s="10"/>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" spans="3:3">
-      <c r="C44" s="10"/>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="10"/>
+      <c r="C45" s="9"/>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="10"/>
+      <c r="C46" s="9"/>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="10"/>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" spans="3:3">
-      <c r="C48" s="10"/>
+      <c r="C48" s="9"/>
     </row>
     <row r="49" spans="3:3">
-      <c r="C49" s="10"/>
+      <c r="C49" s="9"/>
     </row>
     <row r="50" spans="3:3">
-      <c r="C50" s="10"/>
+      <c r="C50" s="9"/>
     </row>
     <row r="51" spans="3:3">
-      <c r="C51" s="10"/>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" spans="3:3">
-      <c r="C52" s="10"/>
+      <c r="C52" s="9"/>
     </row>
     <row r="53" spans="3:3">
-      <c r="C53" s="10"/>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" spans="3:3">
-      <c r="C54" s="10"/>
+      <c r="C54" s="9"/>
     </row>
     <row r="55" spans="3:3">
-      <c r="C55" s="10"/>
+      <c r="C55" s="9"/>
     </row>
     <row r="56" spans="3:3">
-      <c r="C56" s="10"/>
+      <c r="C56" s="9"/>
     </row>
     <row r="57" spans="3:3">
-      <c r="C57" s="10"/>
+      <c r="C57" s="9"/>
     </row>
     <row r="58" spans="3:3">
-      <c r="C58" s="10"/>
+      <c r="C58" s="9"/>
     </row>
     <row r="59" spans="3:3">
-      <c r="C59" s="10"/>
+      <c r="C59" s="9"/>
     </row>
     <row r="60" spans="3:3">
-      <c r="C60" s="10"/>
+      <c r="C60" s="9"/>
     </row>
     <row r="61" spans="3:3">
-      <c r="C61" s="10"/>
+      <c r="C61" s="9"/>
     </row>
     <row r="62" spans="3:3">
-      <c r="C62" s="10"/>
+      <c r="C62" s="9"/>
     </row>
     <row r="63" spans="3:3">
-      <c r="C63" s="10"/>
+      <c r="C63" s="9"/>
     </row>
     <row r="64" spans="3:3">
-      <c r="C64" s="10"/>
+      <c r="C64" s="9"/>
     </row>
     <row r="65" spans="3:3">
-      <c r="C65" s="10"/>
+      <c r="C65" s="9"/>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" s="10"/>
+      <c r="C66" s="9"/>
     </row>
     <row r="67" spans="3:3">
-      <c r="C67" s="10"/>
+      <c r="C67" s="9"/>
     </row>
     <row r="68" spans="3:3">
-      <c r="C68" s="10"/>
+      <c r="C68" s="9"/>
     </row>
     <row r="69" spans="3:3">
-      <c r="C69" s="10"/>
+      <c r="C69" s="9"/>
     </row>
     <row r="70" spans="3:3">
-      <c r="C70" s="10"/>
+      <c r="C70" s="9"/>
     </row>
     <row r="71" spans="3:3">
-      <c r="C71" s="10"/>
+      <c r="C71" s="9"/>
     </row>
     <row r="72" spans="3:3">
-      <c r="C72" s="10"/>
+      <c r="C72" s="9"/>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="10"/>
+      <c r="C73" s="9"/>
     </row>
     <row r="74" spans="3:3">
-      <c r="C74" s="10"/>
+      <c r="C74" s="9"/>
     </row>
     <row r="75" spans="3:3">
-      <c r="C75" s="10"/>
+      <c r="C75" s="9"/>
     </row>
     <row r="76" spans="3:3">
-      <c r="C76" s="10"/>
+      <c r="C76" s="9"/>
     </row>
     <row r="77" spans="3:3">
-      <c r="C77" s="10"/>
+      <c r="C77" s="9"/>
     </row>
     <row r="78" spans="3:3">
-      <c r="C78" s="10"/>
+      <c r="C78" s="9"/>
     </row>
     <row r="79" spans="3:3">
-      <c r="C79" s="10"/>
+      <c r="C79" s="9"/>
     </row>
     <row r="80" spans="3:3">
-      <c r="C80" s="10"/>
+      <c r="C80" s="9"/>
     </row>
     <row r="81" spans="3:3">
-      <c r="C81" s="10"/>
+      <c r="C81" s="9"/>
     </row>
     <row r="82" spans="3:3">
-      <c r="C82" s="10"/>
+      <c r="C82" s="9"/>
     </row>
     <row r="83" spans="3:3">
-      <c r="C83" s="10"/>
+      <c r="C83" s="9"/>
     </row>
     <row r="84" spans="3:3">
-      <c r="C84" s="10"/>
+      <c r="C84" s="9"/>
     </row>
     <row r="85" spans="3:3">
-      <c r="C85" s="10"/>
+      <c r="C85" s="9"/>
     </row>
     <row r="86" spans="3:3">
-      <c r="C86" s="10"/>
+      <c r="C86" s="9"/>
     </row>
     <row r="87" spans="3:3">
-      <c r="C87" s="10"/>
+      <c r="C87" s="9"/>
     </row>
     <row r="88" spans="3:3">
-      <c r="C88" s="10"/>
+      <c r="C88" s="9"/>
     </row>
     <row r="89" spans="3:3">
-      <c r="C89" s="10"/>
+      <c r="C89" s="9"/>
     </row>
     <row r="90" spans="3:3">
-      <c r="C90" s="10"/>
+      <c r="C90" s="9"/>
     </row>
     <row r="91" spans="3:3">
-      <c r="C91" s="10"/>
+      <c r="C91" s="9"/>
     </row>
     <row r="92" spans="3:3">
-      <c r="C92" s="10"/>
+      <c r="C92" s="9"/>
     </row>
     <row r="93" spans="3:3">
-      <c r="C93" s="10"/>
+      <c r="C93" s="9"/>
     </row>
     <row r="94" spans="3:3">
-      <c r="C94" s="10"/>
+      <c r="C94" s="9"/>
     </row>
     <row r="95" spans="3:3">
-      <c r="C95" s="10"/>
+      <c r="C95" s="9"/>
     </row>
     <row r="96" spans="3:3">
-      <c r="C96" s="10"/>
+      <c r="C96" s="9"/>
     </row>
     <row r="97" spans="3:3">
-      <c r="C97" s="10"/>
+      <c r="C97" s="9"/>
     </row>
     <row r="98" spans="3:3">
-      <c r="C98" s="10"/>
+      <c r="C98" s="9"/>
     </row>
     <row r="99" spans="3:3">
-      <c r="C99" s="10"/>
+      <c r="C99" s="9"/>
     </row>
     <row r="100" spans="3:3">
-      <c r="C100" s="10"/>
+      <c r="C100" s="9"/>
     </row>
     <row r="101" spans="3:3">
-      <c r="C101" s="10"/>
+      <c r="C101" s="9"/>
     </row>
     <row r="102" spans="3:3">
-      <c r="C102" s="10"/>
+      <c r="C102" s="9"/>
     </row>
     <row r="103" spans="3:3">
-      <c r="C103" s="10"/>
+      <c r="C103" s="9"/>
     </row>
     <row r="104" spans="3:3">
-      <c r="C104" s="10"/>
+      <c r="C104" s="9"/>
     </row>
     <row r="105" spans="3:3">
-      <c r="C105" s="10"/>
+      <c r="C105" s="9"/>
     </row>
     <row r="106" spans="3:3">
-      <c r="C106" s="10"/>
+      <c r="C106" s="9"/>
     </row>
     <row r="107" spans="3:3">
-      <c r="C107" s="10"/>
+      <c r="C107" s="9"/>
     </row>
     <row r="108" spans="3:3">
-      <c r="C108" s="10"/>
+      <c r="C108" s="9"/>
     </row>
     <row r="109" spans="3:3">
-      <c r="C109" s="10"/>
+      <c r="C109" s="9"/>
     </row>
     <row r="110" spans="3:3">
-      <c r="C110" s="10"/>
+      <c r="C110" s="9"/>
     </row>
     <row r="111" spans="3:3">
-      <c r="C111" s="10"/>
+      <c r="C111" s="9"/>
     </row>
     <row r="112" spans="3:3">
-      <c r="C112" s="10"/>
+      <c r="C112" s="9"/>
     </row>
     <row r="113" spans="3:3">
-      <c r="C113" s="10"/>
+      <c r="C113" s="9"/>
     </row>
     <row r="114" spans="3:3">
-      <c r="C114" s="10"/>
+      <c r="C114" s="9"/>
     </row>
     <row r="115" spans="3:3">
-      <c r="C115" s="10"/>
+      <c r="C115" s="9"/>
     </row>
     <row r="116" spans="3:3">
-      <c r="C116" s="10"/>
+      <c r="C116" s="9"/>
     </row>
     <row r="117" spans="3:3">
-      <c r="C117" s="10"/>
+      <c r="C117" s="9"/>
     </row>
     <row r="118" spans="3:3">
-      <c r="C118" s="10"/>
+      <c r="C118" s="9"/>
     </row>
     <row r="119" spans="3:3">
-      <c r="C119" s="10"/>
+      <c r="C119" s="9"/>
     </row>
     <row r="120" spans="3:3">
-      <c r="C120" s="10"/>
+      <c r="C120" s="9"/>
     </row>
     <row r="121" spans="3:3">
-      <c r="C121" s="10"/>
+      <c r="C121" s="9"/>
     </row>
     <row r="122" spans="3:3">
-      <c r="C122" s="10"/>
+      <c r="C122" s="9"/>
     </row>
     <row r="123" spans="3:3">
-      <c r="C123" s="10"/>
+      <c r="C123" s="9"/>
     </row>
     <row r="124" spans="3:3">
-      <c r="C124" s="10"/>
+      <c r="C124" s="9"/>
     </row>
     <row r="125" spans="3:3">
-      <c r="C125" s="10"/>
+      <c r="C125" s="9"/>
     </row>
     <row r="126" spans="3:3">
-      <c r="C126" s="10"/>
+      <c r="C126" s="9"/>
     </row>
     <row r="127" spans="3:3">
-      <c r="C127" s="10"/>
+      <c r="C127" s="9"/>
     </row>
     <row r="128" spans="3:3">
-      <c r="C128" s="10"/>
+      <c r="C128" s="9"/>
     </row>
     <row r="129" spans="3:3">
-      <c r="C129" s="10"/>
+      <c r="C129" s="9"/>
     </row>
     <row r="130" spans="3:3">
-      <c r="C130" s="10"/>
+      <c r="C130" s="9"/>
     </row>
     <row r="131" spans="3:3">
-      <c r="C131" s="10"/>
+      <c r="C131" s="9"/>
     </row>
     <row r="132" spans="3:3">
-      <c r="C132" s="10"/>
+      <c r="C132" s="9"/>
     </row>
     <row r="133" spans="3:3">
-      <c r="C133" s="10"/>
+      <c r="C133" s="9"/>
     </row>
     <row r="134" spans="3:3">
-      <c r="C134" s="10"/>
+      <c r="C134" s="9"/>
     </row>
     <row r="135" spans="3:3">
-      <c r="C135" s="10"/>
+      <c r="C135" s="9"/>
     </row>
     <row r="136" spans="3:3">
-      <c r="C136" s="10"/>
+      <c r="C136" s="9"/>
     </row>
     <row r="137" spans="3:3">
-      <c r="C137" s="10"/>
+      <c r="C137" s="9"/>
     </row>
     <row r="138" spans="3:3">
-      <c r="C138" s="10"/>
+      <c r="C138" s="9"/>
     </row>
     <row r="139" spans="3:3">
-      <c r="C139" s="10"/>
+      <c r="C139" s="9"/>
     </row>
     <row r="140" spans="3:3">
-      <c r="C140" s="10"/>
+      <c r="C140" s="9"/>
     </row>
     <row r="141" spans="3:3">
-      <c r="C141" s="10"/>
+      <c r="C141" s="9"/>
     </row>
     <row r="142" spans="3:3">
-      <c r="C142" s="10"/>
+      <c r="C142" s="9"/>
     </row>
     <row r="143" spans="3:3">
-      <c r="C143" s="10"/>
+      <c r="C143" s="9"/>
     </row>
     <row r="144" spans="3:3">
-      <c r="C144" s="10"/>
+      <c r="C144" s="9"/>
     </row>
     <row r="145" spans="3:3">
-      <c r="C145" s="10"/>
+      <c r="C145" s="9"/>
     </row>
     <row r="146" spans="3:3">
-      <c r="C146" s="10"/>
+      <c r="C146" s="9"/>
     </row>
     <row r="147" spans="3:3">
-      <c r="C147" s="10"/>
+      <c r="C147" s="9"/>
     </row>
     <row r="148" spans="3:3">
-      <c r="C148" s="10"/>
+      <c r="C148" s="9"/>
     </row>
     <row r="149" spans="3:3">
-      <c r="C149" s="10"/>
+      <c r="C149" s="9"/>
     </row>
     <row r="150" spans="3:3">
-      <c r="C150" s="10"/>
+      <c r="C150" s="9"/>
     </row>
     <row r="151" spans="3:3">
-      <c r="C151" s="10"/>
+      <c r="C151" s="9"/>
     </row>
     <row r="152" spans="3:3">
-      <c r="C152" s="10"/>
+      <c r="C152" s="9"/>
     </row>
     <row r="153" spans="3:3">
-      <c r="C153" s="10"/>
+      <c r="C153" s="9"/>
     </row>
     <row r="154" spans="3:3">
-      <c r="C154" s="10"/>
+      <c r="C154" s="9"/>
     </row>
     <row r="155" spans="3:3">
-      <c r="C155" s="10"/>
+      <c r="C155" s="9"/>
     </row>
     <row r="156" spans="3:3">
-      <c r="C156" s="10"/>
+      <c r="C156" s="9"/>
     </row>
     <row r="157" spans="3:3">
-      <c r="C157" s="10"/>
+      <c r="C157" s="9"/>
     </row>
     <row r="158" spans="3:3">
-      <c r="C158" s="10"/>
+      <c r="C158" s="9"/>
     </row>
     <row r="159" spans="3:3">
-      <c r="C159" s="10"/>
+      <c r="C159" s="9"/>
     </row>
     <row r="160" spans="3:3">
-      <c r="C160" s="10"/>
+      <c r="C160" s="9"/>
     </row>
     <row r="161" spans="3:3">
-      <c r="C161" s="10"/>
+      <c r="C161" s="9"/>
     </row>
     <row r="162" spans="3:3">
-      <c r="C162" s="10"/>
+      <c r="C162" s="9"/>
     </row>
     <row r="163" spans="3:3">
-      <c r="C163" s="10"/>
+      <c r="C163" s="9"/>
     </row>
     <row r="164" spans="3:3">
-      <c r="C164" s="10"/>
+      <c r="C164" s="9"/>
     </row>
     <row r="165" spans="3:3">
-      <c r="C165" s="10"/>
+      <c r="C165" s="9"/>
     </row>
     <row r="166" spans="3:3">
-      <c r="C166" s="10"/>
+      <c r="C166" s="9"/>
     </row>
     <row r="167" spans="3:3">
-      <c r="C167" s="10"/>
+      <c r="C167" s="9"/>
     </row>
     <row r="168" spans="3:3">
-      <c r="C168" s="10"/>
+      <c r="C168" s="9"/>
     </row>
     <row r="169" spans="3:3">
-      <c r="C169" s="10"/>
+      <c r="C169" s="9"/>
     </row>
     <row r="170" spans="3:3">
-      <c r="C170" s="10"/>
+      <c r="C170" s="9"/>
     </row>
     <row r="171" spans="3:3">
-      <c r="C171" s="10"/>
+      <c r="C171" s="9"/>
     </row>
     <row r="172" spans="3:3">
-      <c r="C172" s="10"/>
+      <c r="C172" s="9"/>
     </row>
     <row r="173" spans="3:3">
-      <c r="C173" s="10"/>
+      <c r="C173" s="9"/>
     </row>
     <row r="174" spans="3:3">
-      <c r="C174" s="10"/>
+      <c r="C174" s="9"/>
     </row>
     <row r="175" spans="3:3">
-      <c r="C175" s="10"/>
+      <c r="C175" s="9"/>
     </row>
     <row r="176" spans="3:3">
-      <c r="C176" s="10"/>
+      <c r="C176" s="9"/>
     </row>
     <row r="177" spans="3:3">
-      <c r="C177" s="10"/>
+      <c r="C177" s="9"/>
     </row>
     <row r="178" spans="3:3">
-      <c r="C178" s="10"/>
+      <c r="C178" s="9"/>
     </row>
     <row r="179" spans="3:3">
-      <c r="C179" s="10"/>
+      <c r="C179" s="9"/>
     </row>
     <row r="180" spans="3:3">
-      <c r="C180" s="10"/>
+      <c r="C180" s="9"/>
     </row>
     <row r="181" spans="3:3">
-      <c r="C181" s="10"/>
+      <c r="C181" s="9"/>
     </row>
     <row r="182" spans="3:3">
-      <c r="C182" s="10"/>
+      <c r="C182" s="9"/>
     </row>
     <row r="183" spans="3:3">
-      <c r="C183" s="10"/>
+      <c r="C183" s="9"/>
     </row>
     <row r="184" spans="3:3">
-      <c r="C184" s="10"/>
+      <c r="C184" s="9"/>
     </row>
     <row r="185" spans="3:3">
-      <c r="C185" s="10"/>
+      <c r="C185" s="9"/>
     </row>
     <row r="186" spans="3:3">
-      <c r="C186" s="10"/>
+      <c r="C186" s="9"/>
     </row>
     <row r="187" spans="3:3">
-      <c r="C187" s="10"/>
+      <c r="C187" s="9"/>
     </row>
     <row r="188" spans="3:3">
-      <c r="C188" s="10"/>
+      <c r="C188" s="9"/>
     </row>
     <row r="189" spans="3:3">
-      <c r="C189" s="10"/>
+      <c r="C189" s="9"/>
     </row>
     <row r="190" spans="3:3">
-      <c r="C190" s="10"/>
+      <c r="C190" s="9"/>
     </row>
     <row r="191" spans="3:3">
-      <c r="C191" s="10"/>
+      <c r="C191" s="9"/>
     </row>
     <row r="192" spans="3:3">
-      <c r="C192" s="10"/>
+      <c r="C192" s="9"/>
     </row>
     <row r="193" spans="3:3">
-      <c r="C193" s="10"/>
+      <c r="C193" s="9"/>
     </row>
     <row r="194" spans="3:3">
-      <c r="C194" s="10"/>
+      <c r="C194" s="9"/>
     </row>
     <row r="195" spans="3:3">
-      <c r="C195" s="10"/>
+      <c r="C195" s="9"/>
     </row>
     <row r="196" spans="3:3">
-      <c r="C196" s="10"/>
+      <c r="C196" s="9"/>
     </row>
     <row r="197" spans="3:3">
-      <c r="C197" s="10"/>
+      <c r="C197" s="9"/>
     </row>
     <row r="198" spans="3:3">
-      <c r="C198" s="10"/>
+      <c r="C198" s="9"/>
     </row>
     <row r="199" spans="3:3">
-      <c r="C199" s="10"/>
+      <c r="C199" s="9"/>
     </row>
     <row r="200" spans="3:3">
-      <c r="C200" s="10"/>
+      <c r="C200" s="9"/>
     </row>
     <row r="201" spans="3:3">
-      <c r="C201" s="10"/>
+      <c r="C201" s="9"/>
     </row>
     <row r="202" spans="3:3">
-      <c r="C202" s="10"/>
+      <c r="C202" s="9"/>
     </row>
     <row r="203" spans="3:3">
-      <c r="C203" s="10"/>
+      <c r="C203" s="9"/>
     </row>
     <row r="204" spans="3:3">
-      <c r="C204" s="10"/>
+      <c r="C204" s="9"/>
     </row>
     <row r="205" spans="3:3">
-      <c r="C205" s="10"/>
+      <c r="C205" s="9"/>
     </row>
     <row r="206" spans="3:3">
-      <c r="C206" s="10"/>
+      <c r="C206" s="9"/>
     </row>
     <row r="207" spans="3:3">
-      <c r="C207" s="10"/>
+      <c r="C207" s="9"/>
     </row>
     <row r="208" spans="3:3">
-      <c r="C208" s="10"/>
+      <c r="C208" s="9"/>
     </row>
     <row r="209" spans="3:3">
-      <c r="C209" s="10"/>
+      <c r="C209" s="9"/>
     </row>
     <row r="210" spans="3:3">
-      <c r="C210" s="10"/>
+      <c r="C210" s="9"/>
     </row>
     <row r="211" spans="3:3">
-      <c r="C211" s="10"/>
+      <c r="C211" s="9"/>
     </row>
     <row r="212" spans="3:3">
-      <c r="C212" s="10"/>
+      <c r="C212" s="9"/>
     </row>
     <row r="213" spans="3:3">
-      <c r="C213" s="10"/>
+      <c r="C213" s="9"/>
     </row>
     <row r="214" spans="3:3">
-      <c r="C214" s="10"/>
+      <c r="C214" s="9"/>
     </row>
     <row r="215" spans="3:3">
-      <c r="C215" s="10"/>
+      <c r="C215" s="9"/>
     </row>
     <row r="216" spans="3:3">
-      <c r="C216" s="10"/>
+      <c r="C216" s="9"/>
     </row>
     <row r="217" spans="3:3">
-      <c r="C217" s="10"/>
+      <c r="C217" s="9"/>
     </row>
     <row r="218" spans="3:3">
-      <c r="C218" s="10"/>
+      <c r="C218" s="9"/>
     </row>
     <row r="219" spans="3:3">
-      <c r="C219" s="10"/>
+      <c r="C219" s="9"/>
     </row>
     <row r="220" spans="3:3">
-      <c r="C220" s="10"/>
+      <c r="C220" s="9"/>
     </row>
     <row r="221" spans="3:3">
-      <c r="C221" s="10"/>
+      <c r="C221" s="9"/>
     </row>
     <row r="222" spans="3:3">
-      <c r="C222" s="10"/>
+      <c r="C222" s="9"/>
     </row>
     <row r="223" spans="3:3">
-      <c r="C223" s="10"/>
+      <c r="C223" s="9"/>
     </row>
     <row r="224" spans="3:3">
-      <c r="C224" s="10"/>
+      <c r="C224" s="9"/>
     </row>
     <row r="225" spans="3:3">
-      <c r="C225" s="10"/>
+      <c r="C225" s="9"/>
     </row>
     <row r="226" spans="3:3">
-      <c r="C226" s="10"/>
+      <c r="C226" s="9"/>
     </row>
     <row r="227" spans="3:3">
-      <c r="C227" s="10"/>
+      <c r="C227" s="9"/>
     </row>
     <row r="228" spans="3:3">
-      <c r="C228" s="10"/>
+      <c r="C228" s="9"/>
     </row>
     <row r="229" spans="3:3">
-      <c r="C229" s="10"/>
+      <c r="C229" s="9"/>
     </row>
     <row r="230" spans="3:3">
-      <c r="C230" s="10"/>
+      <c r="C230" s="9"/>
     </row>
     <row r="231" spans="3:3">
-      <c r="C231" s="10"/>
+      <c r="C231" s="9"/>
     </row>
     <row r="232" spans="3:3">
-      <c r="C232" s="10"/>
+      <c r="C232" s="9"/>
     </row>
     <row r="233" spans="3:3">
-      <c r="C233" s="10"/>
+      <c r="C233" s="9"/>
     </row>
     <row r="234" spans="3:3">
-      <c r="C234" s="10"/>
+      <c r="C234" s="9"/>
     </row>
     <row r="235" spans="3:3">
-      <c r="C235" s="10"/>
+      <c r="C235" s="9"/>
     </row>
     <row r="236" spans="3:3">
-      <c r="C236" s="10"/>
+      <c r="C236" s="9"/>
     </row>
     <row r="237" spans="3:3">
-      <c r="C237" s="10"/>
+      <c r="C237" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
